--- a/word/Table3.xlsx
+++ b/word/Table3.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="5985"/>
   </bookViews>
   <sheets>
-    <sheet name="Table3" sheetId="3" r:id="rId1"/>
+    <sheet name="Table3" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>OTB</t>
   </si>
@@ -38,16 +38,227 @@
     <t>Mean</t>
   </si>
   <si>
+    <t>St. Dev.</t>
+  </si>
+  <si>
     <t>Min</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>St. Dev</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Choctawhatchee Bay</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>ECB</t>
+  </si>
+  <si>
+    <t>Indian River Lagoon</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>LCIRL</t>
+  </si>
+  <si>
+    <t>LIRL</t>
+  </si>
+  <si>
+    <t>LML</t>
+  </si>
+  <si>
+    <t>UCIRL</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>LTB</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <r>
+      <t>2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>% light</t>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c,med</t>
+    </r>
   </si>
   <si>
     <r>
@@ -56,7 +267,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>a</t>
@@ -65,10 +276,91 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>BB: Big Bend, OTB: Old Tampa Bay, UIRL: Upper Indian R. Lagoon, WCB: Western Choctawhatchee Bay</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CCB: Central Choctawhatchee Bay, ECB: Eastern Choctawhatchee Bay, WCB: Western Choctawhatchee Bay, BR: Banana R., LCIRL: Lower Central Indian R. Lagoon, LIRL: Lower Indian R. Lagoon, LML: Lower Mosquito Lagoon, UCIRL: Upper Central Indian R. Lagoon, UIRL: Upper Indian R. Lagoon, UML: Upper Mosquito Lagoon, HB: Hillsborough Bay, LTB: Lower Tampa Bay, MTB: Middle Tampa Bay, OTB: Old Tampa Bay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Summary of median depth of colonization (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c,med</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, m) and light requirements (%) for all bay segments of Choctawhatchee Bay, Indian River Lagoon, and Tampa Bay. Superscripts for mean </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c,med</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> denote significant differences within each bay. See Figs. 7 to 9 for spatial distribution of the results</t>
     </r>
   </si>
   <si>
@@ -77,109 +369,15 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Table 3: Summary of uncertainty for seagrass depth estimates (m) for each segment using all grid locations in Fig. 4.  Summaries are based on the widths of 95% confidence intervals.  The uncertainty values are equally applicable to each seagrass depth measure (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>c, min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>c, med</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>c, max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
     </r>
   </si>
 </sst>
@@ -187,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,30 +394,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
@@ -227,15 +446,16 @@
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <vertAlign val="subscript"/>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -258,10 +478,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -269,7 +489,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -277,44 +497,64 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,127 +835,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>111</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="13">
+        <v>50.6</v>
+      </c>
+      <c r="I5" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="K5" s="13">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="13">
+        <v>64</v>
+      </c>
+      <c r="I6" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="J6" s="13">
+        <v>55.1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>140</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="14">
+        <v>45.8</v>
+      </c>
+      <c r="I7" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="J7" s="14">
+        <v>22</v>
+      </c>
+      <c r="K7" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="13">
+        <v>20.7</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="13">
+        <v>20.2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="I10" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="J10" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="K10" s="13">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="J11" s="13">
+        <v>6</v>
+      </c>
+      <c r="K11" s="13">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="13">
+        <v>22.1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12" s="13">
+        <v>19.3</v>
+      </c>
+      <c r="K12" s="13">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="13">
+        <v>20</v>
+      </c>
+      <c r="I13" s="13">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="J13" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="K13" s="13">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="14">
         <v>0.1</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E15" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="14">
+        <v>23.6</v>
+      </c>
+      <c r="I15" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="J15" s="14">
+        <v>15.2</v>
+      </c>
+      <c r="K15" s="14">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="13">
+        <v>34.1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="J17" s="13">
+        <v>12.8</v>
+      </c>
+      <c r="K17" s="13">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="13">
+        <v>40</v>
+      </c>
+      <c r="I18" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="J18" s="13">
+        <v>23.8</v>
+      </c>
+      <c r="K18" s="13">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>74</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="13">
+        <v>36.1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="J19" s="13">
+        <v>17</v>
+      </c>
+      <c r="K19" s="13">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B20" s="9">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="15">
+        <v>48.9</v>
+      </c>
+      <c r="I20" s="15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J20" s="15">
+        <v>29.9</v>
+      </c>
+      <c r="K20" s="15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>